--- a/Assignment 2.xlsx
+++ b/Assignment 2.xlsx
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">       shortcut should you use?</t>
   </si>
   <si>
-    <t xml:space="preserve">Ctrl ; </t>
+    <t xml:space="preserve">Ctrl +; </t>
   </si>
   <si>
     <t xml:space="preserve">   12/17/2025</t>
@@ -1065,7 +1065,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,6 +1145,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1152,16 +1159,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1216,13 +1219,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1382,7 +1378,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,12 +1549,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1703,152 +1693,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1899,13 +1889,14 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2652,154 +2643,154 @@
       <c r="C1" s="33"/>
     </row>
     <row r="2" ht="14.5" spans="1:21">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" ht="14.5" spans="1:21">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" ht="14.5" spans="1:21">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
     </row>
     <row r="5" ht="14.5" spans="1:21">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
     </row>
     <row r="6" ht="14.5" spans="1:21">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
     </row>
     <row r="7" ht="14.5" spans="1:21">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
     </row>
     <row r="8" ht="21" spans="1:8">
       <c r="A8" s="33" t="s">
@@ -2814,10 +2805,10 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
     </row>
     <row r="10" ht="14.5" spans="1:21">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="16"/>
@@ -2842,7 +2833,7 @@
       <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
     </row>
     <row r="12" ht="21" spans="1:7">
       <c r="A12" s="33" t="s">
@@ -2856,7 +2847,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" ht="14.5" spans="1:12">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="16"/>
@@ -2872,7 +2863,7 @@
       <c r="L13" s="16"/>
     </row>
     <row r="14" ht="14.5" spans="1:12">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="16"/>
@@ -2888,7 +2879,7 @@
       <c r="L14" s="16"/>
     </row>
     <row r="15" ht="14.5" spans="1:12">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="16"/>
@@ -2904,7 +2895,7 @@
       <c r="L15" s="16"/>
     </row>
     <row r="16" ht="14.5" spans="1:12">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="16"/>
@@ -2920,7 +2911,7 @@
       <c r="L16" s="16"/>
     </row>
     <row r="17" ht="14.5" spans="1:12">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="16"/>
@@ -2936,7 +2927,7 @@
       <c r="L17" s="16"/>
     </row>
     <row r="18" ht="14.5" spans="1:12">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="16"/>
@@ -2952,7 +2943,7 @@
       <c r="L18" s="16"/>
     </row>
     <row r="19" ht="14.5" spans="1:12">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="16"/>
@@ -2968,7 +2959,7 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" ht="14.5" spans="1:12">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="16"/>
@@ -2984,7 +2975,7 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" ht="14.5" spans="1:12">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="16"/>
@@ -3000,7 +2991,7 @@
       <c r="L21" s="16"/>
     </row>
     <row r="22" ht="14.5" spans="1:12">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="16"/>
@@ -3029,8 +3020,8 @@
   <sheetPr/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3044,84 +3035,84 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:18">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="3" ht="18.5" spans="1:3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="17.5" spans="1:3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>4000</v>
       </c>
     </row>
     <row r="5" ht="17.5" spans="1:3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>5000</v>
       </c>
     </row>
     <row r="6" ht="17.5" spans="1:3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="44">
         <v>2500</v>
       </c>
     </row>
     <row r="10" ht="18.5" spans="1:6">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="42" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3131,29 +3122,29 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="44">
         <v>5000</v>
       </c>
     </row>
     <row r="12" ht="37" spans="1:6">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="44">
         <v>4000</v>
       </c>
     </row>
@@ -3163,28 +3154,28 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="44">
         <v>2500</v>
       </c>
     </row>
     <row r="14" ht="14.5" spans="4:4">
-      <c r="D14" s="48"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" ht="18.5" spans="4:4">
       <c r="D15" s="19"/>
     </row>
     <row r="16" ht="18.5" spans="1:4">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" ht="18.5" spans="1:6">
@@ -3193,56 +3184,56 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="37" spans="1:6">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="44">
         <v>5000</v>
       </c>
     </row>
     <row r="19" ht="37" spans="1:6">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="44">
         <v>4000</v>
       </c>
     </row>
     <row r="20" ht="17.5" spans="4:6">
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="44">
         <v>2500</v>
       </c>
     </row>
@@ -3294,24 +3285,24 @@
       <c r="A2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
@@ -3319,27 +3310,27 @@
       <c r="X2" s="16"/>
     </row>
     <row r="3" ht="18.5" spans="1:24">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -3347,27 +3338,27 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" ht="18.5" spans="1:24">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -3378,24 +3369,24 @@
       <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -3406,24 +3397,24 @@
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -3434,24 +3425,24 @@
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -3462,24 +3453,24 @@
       <c r="A8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -3490,24 +3481,24 @@
       <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -3526,7 +3517,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H1"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -3535,27 +3526,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:8">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" ht="18.5" spans="1:10">
       <c r="A2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -3564,27 +3555,27 @@
       <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" ht="17.5" spans="1:10">
-      <c r="A4" s="40">
+      <c r="A4" s="41">
         <f ca="1">TODAY()</f>
         <v>46009</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -3600,7 +3591,7 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -4629,8 +4620,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4792,7 +4783,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="13" t="str">
         <f ca="1">TEXT(NOW(),"MM/DD/YYYY HH:MM AM/PM")</f>
-        <v>12/18/2025 02:37 PM</v>
+        <v>12/18/2025 02:46 PM</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
